--- a/north-korea-provocation-type-20170409/north-korea-provocation-type-20170409.xlsx
+++ b/north-korea-provocation-type-20170409/north-korea-provocation-type-20170409.xlsx
@@ -17,19 +17,19 @@
     <t>label</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>amt</t>
   </si>
   <si>
     <t>pct</t>
   </si>
   <si>
-    <t>Missile Provocation</t>
+    <t>value</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>Missile Provocation</t>
   </si>
   <si>
     <t>headline</t>
@@ -44,6 +44,9 @@
     <t>Provocations by type</t>
   </si>
   <si>
+    <t>Military Exercise</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
@@ -53,16 +56,13 @@
     <t>Center for Strategic &amp; International Studies &lt;a href="http://beyondparallel.csis.org/databases/"&gt;provocations database&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Military Exercise</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Exchange of Fire</t>
@@ -86,13 +86,6 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14.0"/>
       <name val="Arial"/>
     </font>
@@ -101,7 +94,14 @@
       <sz val="14.0"/>
     </font>
     <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="14.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -124,12 +124,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -137,16 +132,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -154,57 +144,57 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -216,15 +206,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -235,42 +228,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8"/>
@@ -299,7 +292,7 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -331,8 +324,8 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
+      <c r="A4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
@@ -361,11 +354,11 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -393,11 +386,11 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -425,8 +418,8 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -711,6 +704,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -724,39 +720,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
         <v>72.0</v>
       </c>
       <c r="C2">
@@ -765,10 +761,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>30.0</v>
       </c>
       <c r="C3">
@@ -777,10 +773,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
+      <c r="A4" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>22.0</v>
       </c>
       <c r="C4">
@@ -789,7 +785,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="15">
